--- a/src/test/resources/ExcelUtilsTest.xlsx
+++ b/src/test/resources/ExcelUtilsTest.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Categories</t>
   </si>
   <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
     <t>Last Updated</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t>Sports, Leisure</t>
+  </si>
+  <si>
+    <t>5.55</t>
   </si>
   <si>
     <t>2020-05-01T12:00:00</t>
@@ -327,13 +333,16 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>43952.0</v>
@@ -342,13 +351,16 @@
         <v>1.0</v>
       </c>
       <c r="E2" s="1">
-        <v>100.0</v>
+        <v>4.0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
